--- a/applications/Brazil/Salvador_validation.xlsx
+++ b/applications/Brazil/Salvador_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>9620</v>
+        <v>9475</v>
       </c>
       <c r="B3">
-        <v>14279</v>
+        <v>14171</v>
       </c>
       <c r="C3">
-        <v>18917</v>
+        <v>18706</v>
       </c>
       <c r="D3">
-        <v>36781</v>
+        <v>37143</v>
       </c>
       <c r="I3">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="J3">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="K3">
-        <v>609</v>
+        <v>426</v>
       </c>
       <c r="L3">
-        <v>1407</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
